--- a/inputs/HeapSort_8.xlsx
+++ b/inputs/HeapSort_8.xlsx
@@ -14,74 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:si>
-    <x:t>Brazil</x:t>
-  </x:si>
-  <x:si>
-    <x:t>South America</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Brasilia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nigeria</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Africa</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Abuja</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mexico</x:t>
-  </x:si>
-  <x:si>
-    <x:t>North America</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mexico City</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Germany</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Europe</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Berlin</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japan</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Asia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Tokyo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>India</x:t>
-  </x:si>
-  <x:si>
-    <x:t>New Delhi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Australia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oceania</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Canberra</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Canada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ottawa</x:t>
-  </x:si>
-</x:sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -430,149 +363,12 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:E8"/>
+  <x:dimension ref="A1"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
-  <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" s="0" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D1" s="0">
-        <x:v>8515767</x:v>
-      </x:c>
-      <x:c r="E1" s="0">
-        <x:v>212559417</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="0" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B2" s="0" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C2" s="0" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="D2" s="0">
-        <x:v>923768</x:v>
-      </x:c>
-      <x:c r="E2" s="0">
-        <x:v>206139589</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="D3" s="0">
-        <x:v>1964375</x:v>
-      </x:c>
-      <x:c r="E3" s="0">
-        <x:v>128932753</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B4" s="0" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="D4" s="0">
-        <x:v>357022</x:v>
-      </x:c>
-      <x:c r="E4" s="0">
-        <x:v>83240525</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="B5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="D5" s="0">
-        <x:v>377975</x:v>
-      </x:c>
-      <x:c r="E5" s="0">
-        <x:v>126476461</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="B6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="D6" s="0">
-        <x:v>3287263</x:v>
-      </x:c>
-      <x:c r="E6" s="0">
-        <x:v>1393409038</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B7" s="0" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D7" s="0">
-        <x:v>7692024</x:v>
-      </x:c>
-      <x:c r="E7" s="0">
-        <x:v>25687041</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B8" s="0" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="D8" s="0">
-        <x:v>9984670</x:v>
-      </x:c>
-      <x:c r="E8" s="0">
-        <x:v>38005238</x:v>
-      </x:c>
-    </x:row>
-  </x:sheetData>
+  <x:sheetData/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
